--- a/4_aviation/net_zero_scenarios/data/data.xlsx
+++ b/4_aviation/net_zero_scenarios/data/data.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/net_zero_scenarios/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E25855B-EC5B-2E42-8822-2FA48EF68DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF80800F-8BF4-AA45-9731-6F2C9D45DAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{A6288964-F0E9-F642-9207-3337EEFED402}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{A6288964-F0E9-F642-9207-3337EEFED402}"/>
   </bookViews>
   <sheets>
-    <sheet name="Swiss" sheetId="3" r:id="rId1"/>
+    <sheet name="Eurocontrol" sheetId="4" r:id="rId1"/>
+    <sheet name="WayPoint2050" sheetId="5" r:id="rId2"/>
+    <sheet name="Swiss" sheetId="3" r:id="rId3"/>
+    <sheet name="Destination2050" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="wpd_datasets_2" localSheetId="0">Swiss!$A$1:$N$24</definedName>
+    <definedName name="wpd_datasets_2" localSheetId="2">Swiss!$A$1:$N$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>reduced_x</t>
   </si>
@@ -106,6 +109,54 @@
   </si>
   <si>
     <t>history_y</t>
+  </si>
+  <si>
+    <t>Other (x)</t>
+  </si>
+  <si>
+    <t>Other (y)</t>
+  </si>
+  <si>
+    <t>SAF (x)</t>
+  </si>
+  <si>
+    <t>SAF (y)</t>
+  </si>
+  <si>
+    <t>ATM (x)</t>
+  </si>
+  <si>
+    <t>ATM (y)</t>
+  </si>
+  <si>
+    <t>Fleet revol (x)</t>
+  </si>
+  <si>
+    <t>Fleet revol (y)</t>
+  </si>
+  <si>
+    <t>Fleet evol (x)</t>
+  </si>
+  <si>
+    <t>Fleet evol (y)</t>
+  </si>
+  <si>
+    <t>Market-Based Measure (x)</t>
+  </si>
+  <si>
+    <t>Market-Based Measure (y)</t>
+  </si>
+  <si>
+    <t>Operations and Infrastructure (x)</t>
+  </si>
+  <si>
+    <t>Operations and Infrastructure (y)</t>
+  </si>
+  <si>
+    <t>Technology (x)</t>
+  </si>
+  <si>
+    <t>Technology (y)</t>
   </si>
 </sst>
 </file>
@@ -460,11 +511,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885E7847-E21B-384A-B3EE-239A97221160}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60248756-7A13-B544-A066-4CFE938C0EA1}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8018BEA-49B9-1B42-9A7A-5348ADC7F270}">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D27" sqref="D26:D27"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,4 +1058,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C5AF1E-8720-AD4D-AE69-58E15F872AB8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4_aviation/net_zero_scenarios/data/data.xlsx
+++ b/4_aviation/net_zero_scenarios/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/net_zero_scenarios/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://altekantiaarau-my.sharepoint.com/personal/franziska_fehr_stud_altekanti_ch/Documents/Praktikum PSI/03.10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF80800F-8BF4-AA45-9731-6F2C9D45DAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE8FB7BE-2B4A-43B4-8F47-3D808F387F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{A6288964-F0E9-F642-9207-3337EEFED402}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A6288964-F0E9-F642-9207-3337EEFED402}"/>
   </bookViews>
   <sheets>
     <sheet name="Eurocontrol" sheetId="4" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="560">
   <si>
     <t>reduced_x</t>
   </si>
@@ -157,6 +157,1596 @@
   </si>
   <si>
     <t>Technology (y)</t>
+  </si>
+  <si>
+    <t>201,56220095693777</t>
+  </si>
+  <si>
+    <t>2022,0271231131585</t>
+  </si>
+  <si>
+    <t>173,08732057416267</t>
+  </si>
+  <si>
+    <t>2049,943672508036</t>
+  </si>
+  <si>
+    <t>2023,0556275645488</t>
+  </si>
+  <si>
+    <t>2024,084132015939</t>
+  </si>
+  <si>
+    <t>2030,0347649132682</t>
+  </si>
+  <si>
+    <t>2035,0303579628778</t>
+  </si>
+  <si>
+    <t>2040,0259510124874</t>
+  </si>
+  <si>
+    <t>2045,021544062097</t>
+  </si>
+  <si>
+    <t>best_case (x)</t>
+  </si>
+  <si>
+    <t>best_case (y)</t>
+  </si>
+  <si>
+    <t>2050,0171371117067</t>
+  </si>
+  <si>
+    <t>37,04066985645932</t>
+  </si>
+  <si>
+    <t>0,1287878787879322</t>
+  </si>
+  <si>
+    <t>174,14194577352475</t>
+  </si>
+  <si>
+    <t>185,74282296650716</t>
+  </si>
+  <si>
+    <t>189,9613237639553</t>
+  </si>
+  <si>
+    <t>150,94019138755982</t>
+  </si>
+  <si>
+    <t>134,06618819776713</t>
+  </si>
+  <si>
+    <t>126,68381180223287</t>
+  </si>
+  <si>
+    <t>87,66267942583727</t>
+  </si>
+  <si>
+    <t>2022,982162960878</t>
+  </si>
+  <si>
+    <t>2024,0106674122683</t>
+  </si>
+  <si>
+    <t>2047,813199001585</t>
+  </si>
+  <si>
+    <t>186,79744816586918</t>
+  </si>
+  <si>
+    <t>194,1798245614035</t>
+  </si>
+  <si>
+    <t>182,57894736842104</t>
+  </si>
+  <si>
+    <t>198,39832535885165</t>
+  </si>
+  <si>
+    <t>203,67145135566182</t>
+  </si>
+  <si>
+    <t>2035,544610188573</t>
+  </si>
+  <si>
+    <t>2040,172880219829</t>
+  </si>
+  <si>
+    <t>2045,0950086657679</t>
+  </si>
+  <si>
+    <t>178,3604465709729</t>
+  </si>
+  <si>
+    <t>193,12519936204143</t>
+  </si>
+  <si>
+    <t>202,61682615629985</t>
+  </si>
+  <si>
+    <t>207,88995215311004</t>
+  </si>
+  <si>
+    <t>214,21770334928226</t>
+  </si>
+  <si>
+    <t>224,7639553429027</t>
+  </si>
+  <si>
+    <t>2029,8878357059266</t>
+  </si>
+  <si>
+    <t>2044,9480794584265</t>
+  </si>
+  <si>
+    <t>2049,8702079043655</t>
+  </si>
+  <si>
+    <t>217,3815789473684</t>
+  </si>
+  <si>
+    <t>231,09170653907492</t>
+  </si>
+  <si>
+    <t>2025,1126364673291</t>
+  </si>
+  <si>
+    <t>2028,0512206141584</t>
+  </si>
+  <si>
+    <t>2030,2551587242804</t>
+  </si>
+  <si>
+    <t>2039,9524864088169</t>
+  </si>
+  <si>
+    <t>179,41507177033492</t>
+  </si>
+  <si>
+    <t>195,23444976076553</t>
+  </si>
+  <si>
+    <t>206,835326953748</t>
+  </si>
+  <si>
+    <t>228,98245614035085</t>
+  </si>
+  <si>
+    <t>250,07496012759168</t>
+  </si>
+  <si>
+    <t>277,49521531100476</t>
+  </si>
+  <si>
+    <t>2018,9608559225094</t>
+  </si>
+  <si>
+    <t>2019,3653789309228</t>
+  </si>
+  <si>
+    <t>2019,6294622575515</t>
+  </si>
+  <si>
+    <t>2019,9828416711266</t>
+  </si>
+  <si>
+    <t>2021,0204745563494</t>
+  </si>
+  <si>
+    <t>2021,6575614451133</t>
+  </si>
+  <si>
+    <t>2022,228770922331</t>
+  </si>
+  <si>
+    <t>2022,915427264414</t>
+  </si>
+  <si>
+    <t>2023,6023102009729</t>
+  </si>
+  <si>
+    <t>2024,2892093250637</t>
+  </si>
+  <si>
+    <t>2024,9764159208103</t>
+  </si>
+  <si>
+    <t>2025,7263692556328</t>
+  </si>
+  <si>
+    <t>2026,385091668503</t>
+  </si>
+  <si>
+    <t>2027,1451164352652</t>
+  </si>
+  <si>
+    <t>2027,9557556486056</t>
+  </si>
+  <si>
+    <t>2028,9438025375437</t>
+  </si>
+  <si>
+    <t>2030,1346745164708</t>
+  </si>
+  <si>
+    <t>2031,162225790315</t>
+  </si>
+  <si>
+    <t>2031,8455202361004</t>
+  </si>
+  <si>
+    <t>2032,5818959991525</t>
+  </si>
+  <si>
+    <t>2033,2329620892583</t>
+  </si>
+  <si>
+    <t>2033,9173686660342</t>
+  </si>
+  <si>
+    <t>2034,5845479992652</t>
+  </si>
+  <si>
+    <t>2035,294230685535</t>
+  </si>
+  <si>
+    <t>2035,9769987065845</t>
+  </si>
+  <si>
+    <t>2036,6651967066337</t>
+  </si>
+  <si>
+    <t>2037,353429728562</t>
+  </si>
+  <si>
+    <t>2038,0418254327676</t>
+  </si>
+  <si>
+    <t>2038,6946695023387</t>
+  </si>
+  <si>
+    <t>2039,2901672448313</t>
+  </si>
+  <si>
+    <t>2039,9349100716797</t>
+  </si>
+  <si>
+    <t>2040,6067010791237</t>
+  </si>
+  <si>
+    <t>2041,257764183883</t>
+  </si>
+  <si>
+    <t>2041,873928124621</t>
+  </si>
+  <si>
+    <t>2042,5173485800685</t>
+  </si>
+  <si>
+    <t>2043,1713274363826</t>
+  </si>
+  <si>
+    <t>2043,821340925228</t>
+  </si>
+  <si>
+    <t>2044,4569506625664</t>
+  </si>
+  <si>
+    <t>2045,114622017521</t>
+  </si>
+  <si>
+    <t>2045,7861942966592</t>
+  </si>
+  <si>
+    <t>2046,4664593313335</t>
+  </si>
+  <si>
+    <t>2047,1546708882393</t>
+  </si>
+  <si>
+    <t>2047,8428293474572</t>
+  </si>
+  <si>
+    <t>2048,531010401436</t>
+  </si>
+  <si>
+    <t>2049,1691635982706</t>
+  </si>
+  <si>
+    <t>2050,0733138137666</t>
+  </si>
+  <si>
+    <t>898,5507246376812</t>
+  </si>
+  <si>
+    <t>743,9066066783457</t>
+  </si>
+  <si>
+    <t>637,1325936543326</t>
+  </si>
+  <si>
+    <t>492,7536231884055</t>
+  </si>
+  <si>
+    <t>565,217391304348</t>
+  </si>
+  <si>
+    <t>724,3784945449222</t>
+  </si>
+  <si>
+    <t>810,0580731746722</t>
+  </si>
+  <si>
+    <t>853,4427542672147</t>
+  </si>
+  <si>
+    <t>885,6514721051838</t>
+  </si>
+  <si>
+    <t>917,0617977331967</t>
+  </si>
+  <si>
+    <t>933,3071820624812</t>
+  </si>
+  <si>
+    <t>963,768115942029</t>
+  </si>
+  <si>
+    <t>974,6376811594203</t>
+  </si>
+  <si>
+    <t>989,1304347826085</t>
+  </si>
+  <si>
+    <t>1007,2463768115942</t>
+  </si>
+  <si>
+    <t>1025,3623188405797</t>
+  </si>
+  <si>
+    <t>1039,855072463768</t>
+  </si>
+  <si>
+    <t>1032,635239156978</t>
+  </si>
+  <si>
+    <t>1031,210737732477</t>
+  </si>
+  <si>
+    <t>1029,0780555997947</t>
+  </si>
+  <si>
+    <t>1004,3721916631614</t>
+  </si>
+  <si>
+    <t>994,4362816031817</t>
+  </si>
+  <si>
+    <t>982,7098558982614</t>
+  </si>
+  <si>
+    <t>959,6446661664052</t>
+  </si>
+  <si>
+    <t>932,951633520991</t>
+  </si>
+  <si>
+    <t>900,2995413450899</t>
+  </si>
+  <si>
+    <t>865,9201200609068</t>
+  </si>
+  <si>
+    <t>823,5169764672869</t>
+  </si>
+  <si>
+    <t>788,8694953912343</t>
+  </si>
+  <si>
+    <t>745,8594523811914</t>
+  </si>
+  <si>
+    <t>716,9294905244003</t>
+  </si>
+  <si>
+    <t>666,4142875701727</t>
+  </si>
+  <si>
+    <t>626,6630437110985</t>
+  </si>
+  <si>
+    <t>577,332987802095</t>
+  </si>
+  <si>
+    <t>541,3577666295059</t>
+  </si>
+  <si>
+    <t>500,92990745164616</t>
+  </si>
+  <si>
+    <t>466,6542116374894</t>
+  </si>
+  <si>
+    <t>419,24910012981354</t>
+  </si>
+  <si>
+    <t>380,4468674564114</t>
+  </si>
+  <si>
+    <t>340,71965699749353</t>
+  </si>
+  <si>
+    <t>305,485404864286</t>
+  </si>
+  <si>
+    <t>272,1646691625988</t>
+  </si>
+  <si>
+    <t>241,46278727024037</t>
+  </si>
+  <si>
+    <t>209,6464995015699</t>
+  </si>
+  <si>
+    <t>175,62106596633475</t>
+  </si>
+  <si>
+    <t>137,68115942029</t>
+  </si>
+  <si>
+    <t>2020,8122094622777</t>
+  </si>
+  <si>
+    <t>2021,3149017471462</t>
+  </si>
+  <si>
+    <t>2021,8038432696032</t>
+  </si>
+  <si>
+    <t>2022,4246081366944</t>
+  </si>
+  <si>
+    <t>2023,1113013256806</t>
+  </si>
+  <si>
+    <t>2023,798030666284</t>
+  </si>
+  <si>
+    <t>2024,4848865375473</t>
+  </si>
+  <si>
+    <t>2025,1717988957123</t>
+  </si>
+  <si>
+    <t>2025,8588038923963</t>
+  </si>
+  <si>
+    <t>2026,5458134080325</t>
+  </si>
+  <si>
+    <t>2027,232870372666</t>
+  </si>
+  <si>
+    <t>2027,9199928621058</t>
+  </si>
+  <si>
+    <t>2028,6070227130265</t>
+  </si>
+  <si>
+    <t>2029,294077418184</t>
+  </si>
+  <si>
+    <t>2029,9811999076237</t>
+  </si>
+  <si>
+    <t>2030,6682320180205</t>
+  </si>
+  <si>
+    <t>2031,3553703237926</t>
+  </si>
+  <si>
+    <t>2032,0426374197007</t>
+  </si>
+  <si>
+    <t>2032,7299090345612</t>
+  </si>
+  <si>
+    <t>2033,4171783899453</t>
+  </si>
+  <si>
+    <t>2034,1044251505689</t>
+  </si>
+  <si>
+    <t>2034,7915770131974</t>
+  </si>
+  <si>
+    <t>2035,4788780012466</t>
+  </si>
+  <si>
+    <t>2036,16623999515</t>
+  </si>
+  <si>
+    <t>2036,8535161289624</t>
+  </si>
+  <si>
+    <t>2037,5408894202458</t>
+  </si>
+  <si>
+    <t>2038,2282943441942</t>
+  </si>
+  <si>
+    <t>2038,9156924897145</t>
+  </si>
+  <si>
+    <t>2039,6031041920912</t>
+  </si>
+  <si>
+    <t>2040,2905023376115</t>
+  </si>
+  <si>
+    <t>2040,9779253373686</t>
+  </si>
+  <si>
+    <t>2041,6654409756445</t>
+  </si>
+  <si>
+    <t>2042,3529769492052</t>
+  </si>
+  <si>
+    <t>2043,0405129227659</t>
+  </si>
+  <si>
+    <t>2043,7280488963263</t>
+  </si>
+  <si>
+    <t>2044,415584869887</t>
+  </si>
+  <si>
+    <t>2045,1031208434474</t>
+  </si>
+  <si>
+    <t>2045,790656817008</t>
+  </si>
+  <si>
+    <t>2046,4781927905688</t>
+  </si>
+  <si>
+    <t>2047,1657287641292</t>
+  </si>
+  <si>
+    <t>2047,8532647376899</t>
+  </si>
+  <si>
+    <t>2048,5408007112505</t>
+  </si>
+  <si>
+    <t>2049,228336684811</t>
+  </si>
+  <si>
+    <t>2049,8340231377097</t>
+  </si>
+  <si>
+    <t>576,6990185148752</t>
+  </si>
+  <si>
+    <t>669,716107007077</t>
+  </si>
+  <si>
+    <t>776,0334531434276</t>
+  </si>
+  <si>
+    <t>839,7315819676066</t>
+  </si>
+  <si>
+    <t>881,2989211539937</t>
+  </si>
+  <si>
+    <t>921,0832109382834</t>
+  </si>
+  <si>
+    <t>954,6268278152334</t>
+  </si>
+  <si>
+    <t>985,3844300014073</t>
+  </si>
+  <si>
+    <t>1011,572968094707</t>
+  </si>
+  <si>
+    <t>1037,538625012745</t>
+  </si>
+  <si>
+    <t>1061,1640295905304</t>
+  </si>
+  <si>
+    <t>1081,5576571270153</t>
+  </si>
+  <si>
+    <t>1106,5203487563733</t>
+  </si>
+  <si>
+    <t>1130,2571939217898</t>
+  </si>
+  <si>
+    <t>1150,6508214582748</t>
+  </si>
+  <si>
+    <t>1175,502072500002</t>
+  </si>
+  <si>
+    <t>1195,1156159230693</t>
+  </si>
+  <si>
+    <t>1208,3770458511658</t>
+  </si>
+  <si>
+    <t>1221,4155946040003</t>
+  </si>
+  <si>
+    <t>1234,565583944466</t>
+  </si>
+  <si>
+    <t>1248,829979161242</t>
+  </si>
+  <si>
+    <t>1267,7748790585229</t>
+  </si>
+  <si>
+    <t>1279,3647001721536</t>
+  </si>
+  <si>
+    <t>1287,9456254197453</t>
+  </si>
+  <si>
+    <t>1300,7612929973177</t>
+  </si>
+  <si>
+    <t>1308,7850153067543</t>
+  </si>
+  <si>
+    <t>1315,248569389356</t>
+  </si>
+  <si>
+    <t>1322,0464452348508</t>
+  </si>
+  <si>
+    <t>1328,1756775545596</t>
+  </si>
+  <si>
+    <t>1334,9735534000542</t>
+  </si>
+  <si>
+    <t>1340,5455827816074</t>
+  </si>
+  <si>
+    <t>1341,548548070287</t>
+  </si>
+  <si>
+    <t>2022,4845408583901</t>
+  </si>
+  <si>
+    <t>2023,143548568162</t>
+  </si>
+  <si>
+    <t>2023,8301943081508</t>
+  </si>
+  <si>
+    <t>2024,5169936925122</t>
+  </si>
+  <si>
+    <t>2025,203865380108</t>
+  </si>
+  <si>
+    <t>2025,8907370677039</t>
+  </si>
+  <si>
+    <t>2026,5776087552997</t>
+  </si>
+  <si>
+    <t>2027,2645437082253</t>
+  </si>
+  <si>
+    <t>2027,951535148053</t>
+  </si>
+  <si>
+    <t>2028,6384294304096</t>
+  </si>
+  <si>
+    <t>2029,3253689022874</t>
+  </si>
+  <si>
+    <t>2030,012389715304</t>
+  </si>
+  <si>
+    <t>2030,6995212426477</t>
+  </si>
+  <si>
+    <t>2031,3865895046617</t>
+  </si>
+  <si>
+    <t>2032,073601279774</t>
+  </si>
+  <si>
+    <t>2032,7607260286898</t>
+  </si>
+  <si>
+    <t>2033,447866593938</t>
+  </si>
+  <si>
+    <t>2034,135041051327</t>
+  </si>
+  <si>
+    <t>2034,8223104067115</t>
+  </si>
+  <si>
+    <t>2035,5094735667203</t>
+  </si>
+  <si>
+    <t>2036,1966389862052</t>
+  </si>
+  <si>
+    <t>2036,8839106010657</t>
+  </si>
+  <si>
+    <t>2037,571182215926</t>
+  </si>
+  <si>
+    <t>2038,258449311834</t>
+  </si>
+  <si>
+    <t>2038,945736743027</t>
+  </si>
+  <si>
+    <t>2039,6331122937866</t>
+  </si>
+  <si>
+    <t>2040,320456211881</t>
+  </si>
+  <si>
+    <t>2041,007743643074</t>
+  </si>
+  <si>
+    <t>2041,6951372696421</t>
+  </si>
+  <si>
+    <t>2042,3826325726334</t>
+  </si>
+  <si>
+    <t>2043,0701301351007</t>
+  </si>
+  <si>
+    <t>2043,7575373185255</t>
+  </si>
+  <si>
+    <t>2044,444946761426</t>
+  </si>
+  <si>
+    <t>2045,1323539448506</t>
+  </si>
+  <si>
+    <t>2045,8197453119426</t>
+  </si>
+  <si>
+    <t>2046,5071479764151</t>
+  </si>
+  <si>
+    <t>2047,1945845330285</t>
+  </si>
+  <si>
+    <t>2047,882113728161</t>
+  </si>
+  <si>
+    <t>2048,5696497017216</t>
+  </si>
+  <si>
+    <t>2049,257185675282</t>
+  </si>
+  <si>
+    <t>2049,8465022240484</t>
+  </si>
+  <si>
+    <t>858,3480253960802</t>
+  </si>
+  <si>
+    <t>905,5929692575653</t>
+  </si>
+  <si>
+    <t>949,5005607842045</t>
+  </si>
+  <si>
+    <t>985,8301923519314</t>
+  </si>
+  <si>
+    <t>1018,5937251154642</t>
+  </si>
+  <si>
+    <t>1051,357257878997</t>
+  </si>
+  <si>
+    <t>1084,1207906425295</t>
+  </si>
+  <si>
+    <t>1113,7639869523925</t>
+  </si>
+  <si>
+    <t>1140,6211685714788</t>
+  </si>
+  <si>
+    <t>1172,270295458701</t>
+  </si>
+  <si>
+    <t>1201,690610593302</t>
+  </si>
+  <si>
+    <t>1227,0990645731845</t>
+  </si>
+  <si>
+    <t>1247,0469297591449</t>
+  </si>
+  <si>
+    <t>1270,1151313987752</t>
+  </si>
+  <si>
+    <t>1295,969347729182</t>
+  </si>
+  <si>
+    <t>1316,2515346780353</t>
+  </si>
+  <si>
+    <t>1335,7536375134716</t>
+  </si>
+  <si>
+    <t>1353,5841315344421</t>
+  </si>
+  <si>
+    <t>1366,7341208749076</t>
+  </si>
+  <si>
+    <t>1385,121817834033</t>
+  </si>
+  <si>
+    <t>1403,3980742055276</t>
+  </si>
+  <si>
+    <t>1416,436622958362</t>
+  </si>
+  <si>
+    <t>1429,4751717111963</t>
+  </si>
+  <si>
+    <t>1442,7366016392928</t>
+  </si>
+  <si>
+    <t>1454,99506627871</t>
+  </si>
+  <si>
+    <t>1462,9073480005156</t>
+  </si>
+  <si>
+    <t>1472,379797949156</t>
+  </si>
+  <si>
+    <t>1484,6382625885728</t>
+  </si>
+  <si>
+    <t>1491,65901960933</t>
+  </si>
+  <si>
+    <t>1493,664950186689</t>
+  </si>
+  <si>
+    <t>1495,5594401764174</t>
+  </si>
+  <si>
+    <t>1501,9115536713878</t>
+  </si>
+  <si>
+    <t>1508,152226578727</t>
+  </si>
+  <si>
+    <t>1514,5043400736981</t>
+  </si>
+  <si>
+    <t>1521,636537682086</t>
+  </si>
+  <si>
+    <t>1528,211532352319</t>
+  </si>
+  <si>
+    <t>1533,1149182080858</t>
+  </si>
+  <si>
+    <t>1533,4492399709789</t>
+  </si>
+  <si>
+    <t>2034,461805664872</t>
+  </si>
+  <si>
+    <t>2035,0079920096473</t>
+  </si>
+  <si>
+    <t>2035,6727320102104</t>
+  </si>
+  <si>
+    <t>2036,3598996891715</t>
+  </si>
+  <si>
+    <t>2037,0471057792258</t>
+  </si>
+  <si>
+    <t>2037,7342937934716</t>
+  </si>
+  <si>
+    <t>2038,421438877672</t>
+  </si>
+  <si>
+    <t>2039,108541031827</t>
+  </si>
+  <si>
+    <t>2039,7955573258912</t>
+  </si>
+  <si>
+    <t>2040,482560063099</t>
+  </si>
+  <si>
+    <t>2041,169565059783</t>
+  </si>
+  <si>
+    <t>2041,8565768348953</t>
+  </si>
+  <si>
+    <t>2042,5436835080025</t>
+  </si>
+  <si>
+    <t>2043,2307314347318</t>
+  </si>
+  <si>
+    <t>2043,917614419708</t>
+  </si>
+  <si>
+    <t>2044,6045945621552</t>
+  </si>
+  <si>
+    <t>2045,2915408124613</t>
+  </si>
+  <si>
+    <t>2045,9784125000572</t>
+  </si>
+  <si>
+    <t>2046,6652841876528</t>
+  </si>
+  <si>
+    <t>2047,3521558752486</t>
+  </si>
+  <si>
+    <t>2048,0390275628447</t>
+  </si>
+  <si>
+    <t>2048,7258992504403</t>
+  </si>
+  <si>
+    <t>2049,412775456988</t>
+  </si>
+  <si>
+    <t>2049,919768221065</t>
+  </si>
+  <si>
+    <t>1369,5652173913043</t>
+  </si>
+  <si>
+    <t>1387,3682254689118</t>
+  </si>
+  <si>
+    <t>1406,8527324220904</t>
+  </si>
+  <si>
+    <t>1425,0175482059537</t>
+  </si>
+  <si>
+    <t>1441,2878740000888</t>
+  </si>
+  <si>
+    <t>1458,449724495273</t>
+  </si>
+  <si>
+    <t>1477,7289461554471</t>
+  </si>
+  <si>
+    <t>1499,1255389806113</t>
+  </si>
+  <si>
+    <t>1524,756874135756</t>
+  </si>
+  <si>
+    <t>1551,056852816687</t>
+  </si>
+  <si>
+    <t>1577,245390909987</t>
+  </si>
+  <si>
+    <t>1603,0996072403939</t>
+  </si>
+  <si>
+    <t>1624,273318890296</t>
+  </si>
+  <si>
+    <t>1648,3444858186056</t>
+  </si>
+  <si>
+    <t>1680,550815643983</t>
+  </si>
+  <si>
+    <t>1707,965200201225</t>
+  </si>
+  <si>
+    <t>1737,0511935729326</t>
+  </si>
+  <si>
+    <t>1769,8147263364654</t>
+  </si>
+  <si>
+    <t>1802,578259099998</t>
+  </si>
+  <si>
+    <t>1835,341791863531</t>
+  </si>
+  <si>
+    <t>1868,1053246270635</t>
+  </si>
+  <si>
+    <t>1900,8688573905963</t>
+  </si>
+  <si>
+    <t>1933,409508978867</t>
+  </si>
+  <si>
+    <t>1956,800888322627</t>
+  </si>
+  <si>
+    <t>reduced (x)</t>
+  </si>
+  <si>
+    <t>reduced (y)</t>
+  </si>
+  <si>
+    <t>2015,222887417957</t>
+  </si>
+  <si>
+    <t>2015,9098856362127</t>
+  </si>
+  <si>
+    <t>2016,5967866969975</t>
+  </si>
+  <si>
+    <t>2017,2837171309711</t>
+  </si>
+  <si>
+    <t>2017,970783133509</t>
+  </si>
+  <si>
+    <t>2018,6581496463643</t>
+  </si>
+  <si>
+    <t>2019,251214665932</t>
+  </si>
+  <si>
+    <t>2020,0333338894463</t>
+  </si>
+  <si>
+    <t>2020,8027336183682</t>
+  </si>
+  <si>
+    <t>2021,5721001329916</t>
+  </si>
+  <si>
+    <t>2022,354231482361</t>
+  </si>
+  <si>
+    <t>2023,1108853561361</t>
+  </si>
+  <si>
+    <t>2023,854972338963</t>
+  </si>
+  <si>
+    <t>2024,6205326771358</t>
+  </si>
+  <si>
+    <t>2025,4026529550724</t>
+  </si>
+  <si>
+    <t>2026,1593089376918</t>
+  </si>
+  <si>
+    <t>2026,9414286884173</t>
+  </si>
+  <si>
+    <t>2027,723544221454</t>
+  </si>
+  <si>
+    <t>2028,4801949319626</t>
+  </si>
+  <si>
+    <t>2029,262315209899</t>
+  </si>
+  <si>
+    <t>2029,9898665046721</t>
+  </si>
+  <si>
+    <t>2030,8010861983444</t>
+  </si>
+  <si>
+    <t>2031,5286374931175</t>
+  </si>
+  <si>
+    <t>2032,310752498943</t>
+  </si>
+  <si>
+    <t>2033,0674190257841</t>
+  </si>
+  <si>
+    <t>2033,8495234873883</t>
+  </si>
+  <si>
+    <t>2034,6316437653247</t>
+  </si>
+  <si>
+    <t>2035,3450130819606</t>
+  </si>
+  <si>
+    <t>2036,0607226885945</t>
+  </si>
+  <si>
+    <t>2036,7818145931767</t>
+  </si>
+  <si>
+    <t>2037,4975737576526</t>
+  </si>
+  <si>
+    <t>2038,1914483900662</t>
+  </si>
+  <si>
+    <t>2038,8961929287898</t>
+  </si>
+  <si>
+    <t>2039,6009113705645</t>
+  </si>
+  <si>
+    <t>2040,3220649588434</t>
+  </si>
+  <si>
+    <t>2041,0105214429552</t>
+  </si>
+  <si>
+    <t>2041,7316323271364</t>
+  </si>
+  <si>
+    <t>2042,4254368404759</t>
+  </si>
+  <si>
+    <t>2043,1684037873208</t>
+  </si>
+  <si>
+    <t>2043,8622014469163</t>
+  </si>
+  <si>
+    <t>2044,5670088555614</t>
+  </si>
+  <si>
+    <t>2045,2718257540062</t>
+  </si>
+  <si>
+    <t>2045,9929318932875</t>
+  </si>
+  <si>
+    <t>2046,6976621973117</t>
+  </si>
+  <si>
+    <t>2047,402451812583</t>
+  </si>
+  <si>
+    <t>2048,1182146675364</t>
+  </si>
+  <si>
+    <t>2048,8120144359764</t>
+  </si>
+  <si>
+    <t>788,5803522449482</t>
+  </si>
+  <si>
+    <t>815,1032121011415</t>
+  </si>
+  <si>
+    <t>846,4180172254705</t>
+  </si>
+  <si>
+    <t>876,2840947105956</t>
+  </si>
+  <si>
+    <t>899,4637369378572</t>
+  </si>
+  <si>
+    <t>907,8217810101867</t>
+  </si>
+  <si>
+    <t>902,3611922162647</t>
+  </si>
+  <si>
+    <t>902,2831838049226</t>
+  </si>
+  <si>
+    <t>901,5811081028471</t>
+  </si>
+  <si>
+    <t>902,5172090389481</t>
+  </si>
+  <si>
+    <t>901,8411361406529</t>
+  </si>
+  <si>
+    <t>901,8151333368723</t>
+  </si>
+  <si>
+    <t>901,7938583155974</t>
+  </si>
+  <si>
+    <t>902,8812482918761</t>
+  </si>
+  <si>
+    <t>902,7512342729733</t>
+  </si>
+  <si>
+    <t>902,6212202540703</t>
+  </si>
+  <si>
+    <t>902,1011641784587</t>
+  </si>
+  <si>
+    <t>884,4192576076632</t>
+  </si>
+  <si>
+    <t>840,5005220222611</t>
+  </si>
+  <si>
+    <t>800,2481817699208</t>
+  </si>
+  <si>
+    <t>753,8851826291439</t>
+  </si>
+  <si>
+    <t>710,3824919042308</t>
+  </si>
+  <si>
+    <t>669,018531790271</t>
+  </si>
+  <si>
+    <t>628,9417104634495</t>
+  </si>
+  <si>
+    <t>585,6470421687814</t>
+  </si>
+  <si>
+    <t>540,2461467678859</t>
+  </si>
+  <si>
+    <t>499,0577055794447</t>
+  </si>
+  <si>
+    <t>459,01338775734894</t>
+  </si>
+  <si>
+    <t>416,3687895571952</t>
+  </si>
+  <si>
+    <t>376,66250818424714</t>
+  </si>
+  <si>
+    <t>332,1977137194531</t>
+  </si>
+  <si>
+    <t>287,2648687866076</t>
+  </si>
+  <si>
+    <t>246,3104528321919</t>
+  </si>
+  <si>
+    <t>205,64856842030758</t>
+  </si>
+  <si>
+    <t>162,06136858310765</t>
+  </si>
+  <si>
+    <t>115,51634981586676</t>
+  </si>
+  <si>
+    <t>75,70605722779601</t>
+  </si>
+  <si>
+    <t>3,623188405797009</t>
+  </si>
+  <si>
+    <t>2017,9861284913916</t>
+  </si>
+  <si>
+    <t>2019,0014531277689</t>
+  </si>
+  <si>
+    <t>2020,0167777641461</t>
+  </si>
+  <si>
+    <t>2021,0321024005234</t>
+  </si>
+  <si>
+    <t>2022,0474270369007</t>
+  </si>
+  <si>
+    <t>2023,0166005534425</t>
+  </si>
+  <si>
+    <t>2023,9857740699845</t>
+  </si>
+  <si>
+    <t>2050,015005657111</t>
+  </si>
+  <si>
+    <t>181,07042388978388</t>
+  </si>
+  <si>
+    <t>182,3423336779592</t>
+  </si>
+  <si>
+    <t>109,8434757519656</t>
+  </si>
+  <si>
+    <t>118,74684426919288</t>
+  </si>
+  <si>
+    <t>137,82549109182276</t>
+  </si>
+  <si>
+    <t>164,53559664350462</t>
+  </si>
+  <si>
+    <t>292,9984852492126</t>
+  </si>
+  <si>
+    <t>kerosene (x)</t>
+  </si>
+  <si>
+    <t>kerosene (y)</t>
+  </si>
+  <si>
+    <t>2020,985951280688</t>
+  </si>
+  <si>
+    <t>2022,9704494336072</t>
+  </si>
+  <si>
+    <t>2024,0319251898197</t>
+  </si>
+  <si>
+    <t>163,26368685532933</t>
+  </si>
+  <si>
+    <t>183,61424346613452</t>
+  </si>
+  <si>
+    <t>hypothetical_reference (x)</t>
+  </si>
+  <si>
+    <t>hypothetical_reference (y)</t>
+  </si>
+  <si>
+    <t>2034,0467181940865</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 201,4209805005891</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 238,30636435767354</t>
+  </si>
+  <si>
+    <t>hydrogen (x)</t>
+  </si>
+  <si>
+    <t>hydrogen (y)</t>
+  </si>
+  <si>
+    <t>effect hydrogen (x)</t>
+  </si>
+  <si>
+    <t>effect hydrogen (y)</t>
+  </si>
+  <si>
+    <t>2034,1390204337572</t>
+  </si>
+  <si>
+    <t>200,14907071241376</t>
+  </si>
+  <si>
+    <t>178,52660431343324</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 108,57156596379025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 116,20302469284223</t>
+  </si>
+  <si>
+    <t>2021,95512479723</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 131,46594215094615</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 159,44795749080333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 175,98278473708257</t>
+  </si>
+  <si>
+    <t>2034,0005670742512</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 177,2546945252579</t>
+  </si>
+  <si>
+    <t>improved ATM and operations (x)</t>
+  </si>
+  <si>
+    <t>improved ATM and operations (y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 107,29965617561493</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 113,65920511649156</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 128,9221225745955</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 155,63222812627734</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 170,89514558438128</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 186,1580630424852</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 106,0277463874396</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 112,38729532831624</t>
+  </si>
+  <si>
+    <t>2022,0012759170652</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 127,65021278642016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 151,81649876175138</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 167,0794162198553</t>
+  </si>
+  <si>
+    <t>2030,0315707684128</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 173,43896516073193</t>
+  </si>
+  <si>
+    <t>2033,9082648345805</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 160,71986727897865</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 61,510903801303186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effect SAF (x) </t>
+  </si>
+  <si>
+    <t>effect SAF (y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 126,37830299824483</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 150,54458897357603</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 165,80750643167997</t>
+  </si>
+  <si>
+    <t>2029,939268528742</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 168,3513260080306</t>
+  </si>
+  <si>
+    <t>2033,7698114750744</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27,169339520569338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">economic measures (y) </t>
+  </si>
+  <si>
+    <t>economic measures (x)</t>
+  </si>
+  <si>
+    <t>2029,9854196485774</t>
+  </si>
+  <si>
+    <t>2031,0007442849546</t>
+  </si>
+  <si>
+    <t>2034,9697405907932</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92,03673871751101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,546873121588817</t>
+  </si>
+  <si>
+    <t>effect economic measures (x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effect economic measures (y) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net CO2 emmisions (x) </t>
+  </si>
+  <si>
+    <t>2018,0322796112268</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 140,36931066817343</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 141,64122045634875</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95,852468082037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 97,12437787021233</t>
+  </si>
+  <si>
+    <t>2021,8628225575594</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102,21201702291364</t>
+  </si>
+  <si>
+    <t>2023,9396229501492</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 122,56257363371884</t>
+  </si>
+  <si>
+    <t>2031,0468954047901</t>
+  </si>
+  <si>
+    <t>2034,9235894709577</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90,76482892933569</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,4592339688875313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net CO2 emmisions (y) </t>
   </si>
 </sst>
 </file>
@@ -196,7 +1786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -216,7 +1806,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,44 +2102,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885E7847-E21B-384A-B3EE-239A97221160}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="25.9140625" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="21.08203125" customWidth="1"/>
+    <col min="5" max="5" width="22.9140625" customWidth="1"/>
+    <col min="6" max="6" width="20.58203125" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="21.25" customWidth="1"/>
+    <col min="11" max="11" width="19.4140625" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -559,38 +2441,1370 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60248756-7A13-B544-A066-4CFE938C0EA1}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.58203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20.08203125" customWidth="1"/>
+    <col min="5" max="5" width="21.58203125" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="29.25" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" t="s">
+        <v>294</v>
+      </c>
+      <c r="I3" t="s">
+        <v>332</v>
+      </c>
+      <c r="J3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" t="s">
+        <v>296</v>
+      </c>
+      <c r="I5" t="s">
+        <v>334</v>
+      </c>
+      <c r="J5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" t="s">
+        <v>297</v>
+      </c>
+      <c r="I6" t="s">
+        <v>335</v>
+      </c>
+      <c r="J6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I7" t="s">
+        <v>336</v>
+      </c>
+      <c r="J7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I8" t="s">
+        <v>337</v>
+      </c>
+      <c r="J8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" t="s">
+        <v>300</v>
+      </c>
+      <c r="I9" t="s">
+        <v>338</v>
+      </c>
+      <c r="J9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" t="s">
+        <v>260</v>
+      </c>
+      <c r="H10" t="s">
+        <v>301</v>
+      </c>
+      <c r="I10" t="s">
+        <v>339</v>
+      </c>
+      <c r="J10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H11" t="s">
+        <v>302</v>
+      </c>
+      <c r="I11" t="s">
+        <v>340</v>
+      </c>
+      <c r="J11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H12" t="s">
+        <v>303</v>
+      </c>
+      <c r="I12" t="s">
+        <v>341</v>
+      </c>
+      <c r="J12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B13" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" t="s">
+        <v>263</v>
+      </c>
+      <c r="H13" t="s">
+        <v>304</v>
+      </c>
+      <c r="I13" t="s">
+        <v>342</v>
+      </c>
+      <c r="J13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I14" t="s">
+        <v>343</v>
+      </c>
+      <c r="J14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G15" t="s">
+        <v>265</v>
+      </c>
+      <c r="H15" t="s">
+        <v>306</v>
+      </c>
+      <c r="I15" t="s">
+        <v>344</v>
+      </c>
+      <c r="J15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>395</v>
+      </c>
+      <c r="B16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I16" t="s">
+        <v>345</v>
+      </c>
+      <c r="J16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>396</v>
+      </c>
+      <c r="B17" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" t="s">
+        <v>235</v>
+      </c>
+      <c r="G17" t="s">
+        <v>267</v>
+      </c>
+      <c r="H17" t="s">
+        <v>308</v>
+      </c>
+      <c r="I17" t="s">
+        <v>346</v>
+      </c>
+      <c r="J17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>397</v>
+      </c>
+      <c r="B18" t="s">
+        <v>437</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G18" t="s">
+        <v>268</v>
+      </c>
+      <c r="H18" t="s">
+        <v>309</v>
+      </c>
+      <c r="I18" t="s">
+        <v>347</v>
+      </c>
+      <c r="J18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>398</v>
+      </c>
+      <c r="B19" t="s">
+        <v>443</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" t="s">
+        <v>237</v>
+      </c>
+      <c r="G19" t="s">
+        <v>269</v>
+      </c>
+      <c r="H19" t="s">
+        <v>310</v>
+      </c>
+      <c r="I19" t="s">
+        <v>348</v>
+      </c>
+      <c r="J19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20" t="s">
+        <v>442</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" t="s">
+        <v>270</v>
+      </c>
+      <c r="H20" t="s">
+        <v>311</v>
+      </c>
+      <c r="I20" t="s">
+        <v>349</v>
+      </c>
+      <c r="J20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" t="s">
+        <v>443</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" t="s">
+        <v>271</v>
+      </c>
+      <c r="H21" t="s">
+        <v>312</v>
+      </c>
+      <c r="I21" t="s">
+        <v>350</v>
+      </c>
+      <c r="J21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>401</v>
+      </c>
+      <c r="B22" t="s">
+        <v>443</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" t="s">
+        <v>313</v>
+      </c>
+      <c r="I22" t="s">
+        <v>351</v>
+      </c>
+      <c r="J22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>402</v>
+      </c>
+      <c r="B23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23" t="s">
+        <v>273</v>
+      </c>
+      <c r="H23" t="s">
+        <v>314</v>
+      </c>
+      <c r="I23" t="s">
+        <v>352</v>
+      </c>
+      <c r="J23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>403</v>
+      </c>
+      <c r="B24" t="s">
+        <v>443</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" t="s">
+        <v>274</v>
+      </c>
+      <c r="H24" t="s">
+        <v>315</v>
+      </c>
+      <c r="I24" t="s">
+        <v>353</v>
+      </c>
+      <c r="J24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>404</v>
+      </c>
+      <c r="B25" t="s">
+        <v>442</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>275</v>
+      </c>
+      <c r="H25" t="s">
+        <v>316</v>
+      </c>
+      <c r="I25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B26" t="s">
+        <v>444</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>276</v>
+      </c>
+      <c r="H26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>406</v>
+      </c>
+      <c r="B27" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="H27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>407</v>
+      </c>
+      <c r="B28" t="s">
+        <v>443</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>408</v>
+      </c>
+      <c r="B29" t="s">
+        <v>445</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" t="s">
+        <v>279</v>
+      </c>
+      <c r="H29" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>409</v>
+      </c>
+      <c r="B30" t="s">
+        <v>446</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G30" t="s">
+        <v>280</v>
+      </c>
+      <c r="H30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>410</v>
+      </c>
+      <c r="B31" t="s">
+        <v>447</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" t="s">
+        <v>281</v>
+      </c>
+      <c r="H31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>411</v>
+      </c>
+      <c r="B32" t="s">
+        <v>448</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" t="s">
+        <v>250</v>
+      </c>
+      <c r="G32" t="s">
+        <v>282</v>
+      </c>
+      <c r="H32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>412</v>
+      </c>
+      <c r="B33" t="s">
+        <v>449</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>413</v>
+      </c>
+      <c r="B34" t="s">
+        <v>450</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" t="s">
+        <v>284</v>
+      </c>
+      <c r="H34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>414</v>
+      </c>
+      <c r="B35" t="s">
+        <v>451</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" t="s">
+        <v>209</v>
+      </c>
+      <c r="F35" t="s">
+        <v>251</v>
+      </c>
+      <c r="G35" t="s">
+        <v>285</v>
+      </c>
+      <c r="H35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>415</v>
+      </c>
+      <c r="B36" t="s">
+        <v>452</v>
+      </c>
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" t="s">
+        <v>286</v>
+      </c>
+      <c r="H36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>416</v>
+      </c>
+      <c r="B37" t="s">
+        <v>453</v>
+      </c>
+      <c r="C37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" t="s">
+        <v>251</v>
+      </c>
+      <c r="G37" t="s">
+        <v>287</v>
+      </c>
+      <c r="H37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>417</v>
+      </c>
+      <c r="B38" t="s">
+        <v>454</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" t="s">
+        <v>251</v>
+      </c>
+      <c r="G38" t="s">
+        <v>288</v>
+      </c>
+      <c r="H38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>418</v>
+      </c>
+      <c r="B39" t="s">
+        <v>455</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" t="s">
+        <v>251</v>
+      </c>
+      <c r="G39" t="s">
+        <v>289</v>
+      </c>
+      <c r="H39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>419</v>
+      </c>
+      <c r="B40" t="s">
+        <v>456</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" t="s">
+        <v>251</v>
+      </c>
+      <c r="G40" t="s">
+        <v>290</v>
+      </c>
+      <c r="H40" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>420</v>
+      </c>
+      <c r="B41" t="s">
+        <v>457</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" t="s">
+        <v>291</v>
+      </c>
+      <c r="H41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>421</v>
+      </c>
+      <c r="B42" t="s">
+        <v>458</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" t="s">
+        <v>251</v>
+      </c>
+      <c r="G42" t="s">
+        <v>292</v>
+      </c>
+      <c r="H42" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>422</v>
+      </c>
+      <c r="B43" t="s">
+        <v>459</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>423</v>
+      </c>
+      <c r="B44" t="s">
+        <v>460</v>
+      </c>
+      <c r="C44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>424</v>
+      </c>
+      <c r="B45" t="s">
+        <v>461</v>
+      </c>
+      <c r="C45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>425</v>
+      </c>
+      <c r="B46" t="s">
+        <v>462</v>
+      </c>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>426</v>
+      </c>
+      <c r="B47" t="s">
+        <v>463</v>
+      </c>
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>427</v>
+      </c>
+      <c r="B48" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2050</v>
+      </c>
+      <c r="B49" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -602,16 +3816,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8018BEA-49B9-1B42-9A7A-5348ADC7F270}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+    <sheetView zoomScale="134" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +3869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2024.1199143291899</v>
       </c>
@@ -699,7 +3913,7 @@
         <v>5.8743367837909704</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2024.65311237222</v>
       </c>
@@ -743,7 +3957,7 @@
         <v>2.41407803934008</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2025.2200915282001</v>
       </c>
@@ -787,7 +4001,7 @@
         <v>4.2550614336143804</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2025.6056667314299</v>
       </c>
@@ -825,7 +4039,7 @@
         <v>5.5697772502421996</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2026.0590848097099</v>
       </c>
@@ -857,7 +4071,7 @@
         <v>5.9042543966200096</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2026.55822109065</v>
       </c>
@@ -883,7 +4097,7 @@
         <v>6.6849396694544003</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2027.30830256637</v>
       </c>
@@ -903,7 +4117,7 @@
         <v>6.78785223775939</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2028.1265941316001</v>
       </c>
@@ -917,7 +4131,7 @@
         <v>6.8981417495343704</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2028.8540001132201</v>
       </c>
@@ -931,7 +4145,7 @@
         <v>7.0580302994687498</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2029.9225942478899</v>
       </c>
@@ -945,7 +4159,7 @@
         <v>7.1814387573671903</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2032.8563166245599</v>
       </c>
@@ -959,7 +4173,7 @@
         <v>7.2825880502213796</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K13">
         <v>2038.6482847842301</v>
       </c>
@@ -967,7 +4181,7 @@
         <v>7.3809866333723102</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K14">
         <v>2039.8317894567599</v>
       </c>
@@ -975,7 +4189,7 @@
         <v>7.4695108739987299</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K15">
         <v>2041.0153129355199</v>
       </c>
@@ -983,7 +4197,7 @@
         <v>7.5638186581037896</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K16">
         <v>2042.19883091001</v>
       </c>
@@ -991,7 +4205,7 @@
         <v>7.6564336977760696</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K17">
         <v>2043.3823433802499</v>
       </c>
@@ -999,7 +4213,7 @@
         <v>7.7473559930155904</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K18">
         <v>2044.5658411724401</v>
       </c>
@@ -1007,7 +4221,7 @@
         <v>7.83376430310103</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K19">
         <v>2045.7493894203899</v>
       </c>
@@ -1015,7 +4229,7 @@
         <v>7.93568943715358</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K20">
         <v>2046.9329110643901</v>
       </c>
@@ -1023,7 +4237,7 @@
         <v>8.0294329731143801</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K21">
         <v>2048.1164042697001</v>
       </c>
@@ -1031,7 +4245,7 @@
         <v>8.1144306628391796</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K22">
         <v>2049.2998938054998</v>
       </c>
@@ -1039,7 +4253,7 @@
         <v>8.1982998562754705</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K23">
         <v>2050.2864027301398</v>
       </c>
@@ -1047,7 +4261,7 @@
         <v>8.3505005488493502</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K24">
         <v>2024.1542515021299</v>
       </c>
@@ -1062,12 +4276,491 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C5AF1E-8720-AD4D-AE69-58E15F872AB8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.9140625" customWidth="1"/>
+    <col min="5" max="5" width="18.4140625" customWidth="1"/>
+    <col min="6" max="6" width="19.4140625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="18.9140625" customWidth="1"/>
+    <col min="15" max="15" width="20.4140625" customWidth="1"/>
+    <col min="16" max="16" width="19.83203125" customWidth="1"/>
+    <col min="17" max="17" width="25.33203125" customWidth="1"/>
+    <col min="18" max="18" width="24.9140625" customWidth="1"/>
+    <col min="19" max="19" width="20.33203125" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J1" t="s">
+        <v>509</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>527</v>
+      </c>
+      <c r="N1" t="s">
+        <v>528</v>
+      </c>
+      <c r="O1" t="s">
+        <v>537</v>
+      </c>
+      <c r="P1" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R1" t="s">
+        <v>544</v>
+      </c>
+      <c r="S1" t="s">
+        <v>545</v>
+      </c>
+      <c r="T1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H2" t="s">
+        <v>498</v>
+      </c>
+      <c r="I2" t="s">
+        <v>468</v>
+      </c>
+      <c r="J2" t="s">
+        <v>500</v>
+      </c>
+      <c r="K2" t="s">
+        <v>468</v>
+      </c>
+      <c r="L2" t="s">
+        <v>510</v>
+      </c>
+      <c r="M2" t="s">
+        <v>468</v>
+      </c>
+      <c r="N2" t="s">
+        <v>516</v>
+      </c>
+      <c r="O2" t="s">
+        <v>468</v>
+      </c>
+      <c r="P2" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>538</v>
+      </c>
+      <c r="R2" t="s">
+        <v>511</v>
+      </c>
+      <c r="S2" t="s">
+        <v>546</v>
+      </c>
+      <c r="T2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G3" t="s">
+        <v>473</v>
+      </c>
+      <c r="H3" t="s">
+        <v>499</v>
+      </c>
+      <c r="I3" t="s">
+        <v>469</v>
+      </c>
+      <c r="J3" t="s">
+        <v>501</v>
+      </c>
+      <c r="K3" t="s">
+        <v>483</v>
+      </c>
+      <c r="L3" t="s">
+        <v>511</v>
+      </c>
+      <c r="M3" t="s">
+        <v>483</v>
+      </c>
+      <c r="N3" t="s">
+        <v>517</v>
+      </c>
+      <c r="O3" t="s">
+        <v>469</v>
+      </c>
+      <c r="P3" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>539</v>
+      </c>
+      <c r="R3" t="s">
+        <v>500</v>
+      </c>
+      <c r="S3" t="s">
+        <v>467</v>
+      </c>
+      <c r="T3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D4" t="s">
+        <v>478</v>
+      </c>
+      <c r="I4" t="s">
+        <v>502</v>
+      </c>
+      <c r="J4" t="s">
+        <v>503</v>
+      </c>
+      <c r="K4" t="s">
+        <v>502</v>
+      </c>
+      <c r="L4" t="s">
+        <v>512</v>
+      </c>
+      <c r="M4" t="s">
+        <v>518</v>
+      </c>
+      <c r="N4" t="s">
+        <v>519</v>
+      </c>
+      <c r="O4" t="s">
+        <v>518</v>
+      </c>
+      <c r="P4" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>540</v>
+      </c>
+      <c r="R4" t="s">
+        <v>541</v>
+      </c>
+      <c r="S4" t="s">
+        <v>468</v>
+      </c>
+      <c r="T4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" t="s">
+        <v>486</v>
+      </c>
+      <c r="I5" t="s">
+        <v>471</v>
+      </c>
+      <c r="J5" t="s">
+        <v>504</v>
+      </c>
+      <c r="K5" t="s">
+        <v>471</v>
+      </c>
+      <c r="L5" t="s">
+        <v>513</v>
+      </c>
+      <c r="M5" t="s">
+        <v>484</v>
+      </c>
+      <c r="N5" t="s">
+        <v>520</v>
+      </c>
+      <c r="O5" t="s">
+        <v>471</v>
+      </c>
+      <c r="P5" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>473</v>
+      </c>
+      <c r="R5" t="s">
+        <v>542</v>
+      </c>
+      <c r="S5" t="s">
+        <v>483</v>
+      </c>
+      <c r="T5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I6" t="s">
+        <v>472</v>
+      </c>
+      <c r="J6" t="s">
+        <v>505</v>
+      </c>
+      <c r="K6" t="s">
+        <v>472</v>
+      </c>
+      <c r="L6" t="s">
+        <v>514</v>
+      </c>
+      <c r="M6" t="s">
+        <v>485</v>
+      </c>
+      <c r="N6" t="s">
+        <v>521</v>
+      </c>
+      <c r="O6" t="s">
+        <v>485</v>
+      </c>
+      <c r="P6" t="s">
+        <v>531</v>
+      </c>
+      <c r="S6" t="s">
+        <v>551</v>
+      </c>
+      <c r="T6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D7" t="s">
+        <v>480</v>
+      </c>
+      <c r="I7" t="s">
+        <v>506</v>
+      </c>
+      <c r="J7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L7" t="s">
+        <v>515</v>
+      </c>
+      <c r="M7" t="s">
+        <v>522</v>
+      </c>
+      <c r="N7" t="s">
+        <v>523</v>
+      </c>
+      <c r="O7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P7" t="s">
+        <v>533</v>
+      </c>
+      <c r="S7" t="s">
+        <v>553</v>
+      </c>
+      <c r="T7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B8" t="s">
+        <v>475</v>
+      </c>
+      <c r="I8" t="s">
+        <v>473</v>
+      </c>
+      <c r="J8" t="s">
+        <v>507</v>
+      </c>
+      <c r="K8" t="s">
+        <v>473</v>
+      </c>
+      <c r="L8" t="s">
+        <v>504</v>
+      </c>
+      <c r="M8" t="s">
+        <v>524</v>
+      </c>
+      <c r="N8" t="s">
+        <v>525</v>
+      </c>
+      <c r="O8" t="s">
+        <v>534</v>
+      </c>
+      <c r="P8" t="s">
+        <v>530</v>
+      </c>
+      <c r="S8" t="s">
+        <v>538</v>
+      </c>
+      <c r="T8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" t="s">
+        <v>480</v>
+      </c>
+      <c r="M9" t="s">
+        <v>473</v>
+      </c>
+      <c r="N9" t="s">
+        <v>526</v>
+      </c>
+      <c r="O9" t="s">
+        <v>473</v>
+      </c>
+      <c r="P9" t="s">
+        <v>535</v>
+      </c>
+      <c r="S9" t="s">
+        <v>555</v>
+      </c>
+      <c r="T9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S10" t="s">
+        <v>556</v>
+      </c>
+      <c r="T10" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S11" t="s">
+        <v>473</v>
+      </c>
+      <c r="T11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/4_aviation/net_zero_scenarios/data/data.xlsx
+++ b/4_aviation/net_zero_scenarios/data/data.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/net_zero_scenarios/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E18A69-AA4B-BD4D-B858-0BEE835E8B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBE07B7-E5AC-FA4D-A86E-229EDEBBDD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{A6288964-F0E9-F642-9207-3337EEFED402}"/>
+    <workbookView xWindow="-76800" yWindow="-15380" windowWidth="25600" windowHeight="28300" activeTab="2" xr2:uid="{A6288964-F0E9-F642-9207-3337EEFED402}"/>
   </bookViews>
   <sheets>
     <sheet name="Eurocontrol" sheetId="4" r:id="rId1"/>
     <sheet name="WayPoint2050" sheetId="5" r:id="rId2"/>
-    <sheet name="Swiss" sheetId="3" r:id="rId3"/>
-    <sheet name="Destination2050" sheetId="6" r:id="rId4"/>
+    <sheet name="CORSIA" sheetId="7" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="3" r:id="rId4"/>
+    <sheet name="Destination2050" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="wpd_datasets_2" localSheetId="2">Swiss!$A$1:$N$24</definedName>
+    <definedName name="wpd_datasets_2" localSheetId="3">Swiss!$A$1:$N$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="680">
   <si>
     <t>Other (x)</t>
   </si>
@@ -2083,6 +2084,30 @@
   </si>
   <si>
     <t xml:space="preserve"> 5,972185394295596</t>
+  </si>
+  <si>
+    <t>net (x)</t>
+  </si>
+  <si>
+    <t>net (y)</t>
+  </si>
+  <si>
+    <t>tech (x)</t>
+  </si>
+  <si>
+    <t>tech (y)</t>
+  </si>
+  <si>
+    <t>corsia (x)</t>
+  </si>
+  <si>
+    <t>corsia (y)</t>
+  </si>
+  <si>
+    <t>baseline (x)</t>
+  </si>
+  <si>
+    <t>baseline (y)</t>
   </si>
 </sst>
 </file>
@@ -3387,8 +3412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60248756-7A13-B544-A066-4CFE938C0EA1}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5105,6 +5130,875 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240D2AC3-9333-C244-8764-5B93F30ED127}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010.2642493997801</v>
+      </c>
+      <c r="B2">
+        <v>456.59680200789802</v>
+      </c>
+      <c r="C2">
+        <v>2012.9258356734199</v>
+      </c>
+      <c r="D2">
+        <v>516.42488843541605</v>
+      </c>
+      <c r="E2">
+        <v>2010.8551686656299</v>
+      </c>
+      <c r="F2">
+        <v>469.349926605429</v>
+      </c>
+      <c r="G2">
+        <v>2010.8551686656299</v>
+      </c>
+      <c r="H2">
+        <v>469.349926605429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011.4103379266801</v>
+      </c>
+      <c r="B3">
+        <v>485.56239764919502</v>
+      </c>
+      <c r="C3">
+        <v>2014.0204010801699</v>
+      </c>
+      <c r="D3">
+        <v>544.44005462721896</v>
+      </c>
+      <c r="E3">
+        <v>2011.9529900550799</v>
+      </c>
+      <c r="F3">
+        <v>493.16137823063201</v>
+      </c>
+      <c r="G3">
+        <v>2011.9529900550799</v>
+      </c>
+      <c r="H3">
+        <v>493.16137823063201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012.50164379783</v>
+      </c>
+      <c r="B4">
+        <v>515.901056283755</v>
+      </c>
+      <c r="C4">
+        <v>2015.1180976533699</v>
+      </c>
+      <c r="D4">
+        <v>573.51417570658805</v>
+      </c>
+      <c r="E4">
+        <v>2013.05087924596</v>
+      </c>
+      <c r="F4">
+        <v>514.114095831349</v>
+      </c>
+      <c r="G4">
+        <v>2013.05087924596</v>
+      </c>
+      <c r="H4">
+        <v>514.114095831349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013.59929876561</v>
+      </c>
+      <c r="B5">
+        <v>546.72940051451303</v>
+      </c>
+      <c r="C5">
+        <v>2016.17918046721</v>
+      </c>
+      <c r="D5">
+        <v>602.62574936779902</v>
+      </c>
+      <c r="E5">
+        <v>2014.14871373342</v>
+      </c>
+      <c r="F5">
+        <v>537.37329202000296</v>
+      </c>
+      <c r="G5">
+        <v>2014.14871373342</v>
+      </c>
+      <c r="H5">
+        <v>537.37329202000296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014.6969337011501</v>
+      </c>
+      <c r="B6">
+        <v>578.40237070705098</v>
+      </c>
+      <c r="C6">
+        <v>2017.2402344434299</v>
+      </c>
+      <c r="D6">
+        <v>632.953213149813</v>
+      </c>
+      <c r="E6">
+        <v>2015.24654282759</v>
+      </c>
+      <c r="F6">
+        <v>560.85988750605998</v>
+      </c>
+      <c r="G6">
+        <v>2015.24654282759</v>
+      </c>
+      <c r="H6">
+        <v>560.85988750605998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015.79455476822</v>
+      </c>
+      <c r="B7">
+        <v>610.66008195005202</v>
+      </c>
+      <c r="C7">
+        <v>2018.33785474003</v>
+      </c>
+      <c r="D7">
+        <v>665.24341000672996</v>
+      </c>
+      <c r="E7">
+        <v>2016.34438424928</v>
+      </c>
+      <c r="F7">
+        <v>583.82671316948199</v>
+      </c>
+      <c r="G7">
+        <v>2016.34438424928</v>
+      </c>
+      <c r="H7">
+        <v>583.82671316948199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016.8921627372799</v>
+      </c>
+      <c r="B8">
+        <v>643.47004862960102</v>
+      </c>
+      <c r="C8">
+        <v>2019.4354511520301</v>
+      </c>
+      <c r="D8">
+        <v>698.54066089499804</v>
+      </c>
+      <c r="E8">
+        <v>2017.44222567098</v>
+      </c>
+      <c r="F8">
+        <v>606.79353883290503</v>
+      </c>
+      <c r="G8">
+        <v>2017.44222567098</v>
+      </c>
+      <c r="H8">
+        <v>606.79353883290503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017.9897560674101</v>
+      </c>
+      <c r="B9">
+        <v>676.89724197352803</v>
+      </c>
+      <c r="C9">
+        <v>2020.53302907274</v>
+      </c>
+      <c r="D9">
+        <v>732.61756651721703</v>
+      </c>
+      <c r="E9">
+        <v>2018.5400678631399</v>
+      </c>
+      <c r="F9">
+        <v>629.72787888241396</v>
+      </c>
+      <c r="G9">
+        <v>2018.5400678631399</v>
+      </c>
+      <c r="H9">
+        <v>629.72787888241396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2019.08732705388</v>
+      </c>
+      <c r="B10">
+        <v>711.26651812097896</v>
+      </c>
+      <c r="C10">
+        <v>2021.6122915759699</v>
+      </c>
+      <c r="D10">
+        <v>767.07318063972104</v>
+      </c>
+      <c r="E10">
+        <v>2019.6379285466101</v>
+      </c>
+      <c r="F10">
+        <v>651.88256419797096</v>
+      </c>
+      <c r="G10">
+        <v>2019.6379285466101</v>
+      </c>
+      <c r="H10">
+        <v>651.88256419797096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2020.18488417188</v>
+      </c>
+      <c r="B11">
+        <v>746.22053531889196</v>
+      </c>
+      <c r="C11">
+        <v>2022.6915343923399</v>
+      </c>
+      <c r="D11">
+        <v>802.35885820742203</v>
+      </c>
+      <c r="E11">
+        <v>2019.8886628077501</v>
+      </c>
+      <c r="F11">
+        <v>659.24614365530294</v>
+      </c>
+      <c r="G11">
+        <v>2019.8886628077501</v>
+      </c>
+      <c r="H11">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2021.28241663481</v>
+      </c>
+      <c r="B12">
+        <v>782.21409216207303</v>
+      </c>
+      <c r="C12">
+        <v>2023.7890483639801</v>
+      </c>
+      <c r="D12">
+        <v>839.13206978455298</v>
+      </c>
+      <c r="E12">
+        <v>2020.83451886178</v>
+      </c>
+      <c r="F12">
+        <v>678.80205261789797</v>
+      </c>
+      <c r="G12">
+        <v>2021.49476760121</v>
+      </c>
+      <c r="H12">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2022.37992521315</v>
+      </c>
+      <c r="B13">
+        <v>819.21470303660703</v>
+      </c>
+      <c r="C13">
+        <v>2024.8865407624301</v>
+      </c>
+      <c r="D13">
+        <v>876.81487855129501</v>
+      </c>
+      <c r="E13">
+        <v>2021.52245601807</v>
+      </c>
+      <c r="F13">
+        <v>695.53803375829705</v>
+      </c>
+      <c r="G13">
+        <v>2022.5464060075201</v>
+      </c>
+      <c r="H13">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2023.4591170721901</v>
+      </c>
+      <c r="B14">
+        <v>856.64891189700597</v>
+      </c>
+      <c r="C14">
+        <v>2025.9474328297399</v>
+      </c>
+      <c r="D14">
+        <v>913.96896205736505</v>
+      </c>
+      <c r="E14">
+        <v>2022.62022039269</v>
+      </c>
+      <c r="F14">
+        <v>721.75342081318104</v>
+      </c>
+      <c r="G14">
+        <v>2023.5980444138199</v>
+      </c>
+      <c r="H14">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2024.50169322291</v>
+      </c>
+      <c r="B15">
+        <v>894.20274753996102</v>
+      </c>
+      <c r="C15">
+        <v>2026.9077059491101</v>
+      </c>
+      <c r="D15">
+        <v>948.321395347921</v>
+      </c>
+      <c r="E15">
+        <v>2023.7179716693099</v>
+      </c>
+      <c r="F15">
+        <v>748.52106330461299</v>
+      </c>
+      <c r="G15">
+        <v>2024.64968282012</v>
+      </c>
+      <c r="H15">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2025.52594351874</v>
+      </c>
+      <c r="B16">
+        <v>932.57536773376899</v>
+      </c>
+      <c r="C16">
+        <v>2027.8222438754899</v>
+      </c>
+      <c r="D16">
+        <v>981.37115569531397</v>
+      </c>
+      <c r="E16">
+        <v>2024.8157167821701</v>
+      </c>
+      <c r="F16">
+        <v>775.548590707362</v>
+      </c>
+      <c r="G16">
+        <v>2025.7013212264301</v>
+      </c>
+      <c r="H16">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2026.5135706952599</v>
+      </c>
+      <c r="B17">
+        <v>971.38008717076605</v>
+      </c>
+      <c r="C17">
+        <v>2028.7459068934299</v>
+      </c>
+      <c r="D17">
+        <v>1015.60681094837</v>
+      </c>
+      <c r="E17">
+        <v>2025.9134457151399</v>
+      </c>
+      <c r="F17">
+        <v>803.258316002318</v>
+      </c>
+      <c r="G17">
+        <v>2026.7529596327299</v>
+      </c>
+      <c r="H17">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2027.4279898709499</v>
+      </c>
+      <c r="B18">
+        <v>1009.4367726343399</v>
+      </c>
+      <c r="C18">
+        <v>2029.6878324899201</v>
+      </c>
+      <c r="D18">
+        <v>1051.6916235650999</v>
+      </c>
+      <c r="E18">
+        <v>2027.0111654024599</v>
+      </c>
+      <c r="F18">
+        <v>831.35786866424803</v>
+      </c>
+      <c r="G18">
+        <v>2027.80459803903</v>
+      </c>
+      <c r="H18">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2028.2234929654201</v>
+      </c>
+      <c r="B19">
+        <v>1044.2995937071901</v>
+      </c>
+      <c r="C19">
+        <v>2030.51332106167</v>
+      </c>
+      <c r="D19">
+        <v>1084.3627385935999</v>
+      </c>
+      <c r="E19">
+        <v>2028.10886428707</v>
+      </c>
+      <c r="F19">
+        <v>860.33453290187401</v>
+      </c>
+      <c r="G19">
+        <v>2028.8562364453401</v>
+      </c>
+      <c r="H19">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2028.99153943186</v>
+      </c>
+      <c r="B20">
+        <v>1079.03485885745</v>
+      </c>
+      <c r="C20">
+        <v>2031.32497632645</v>
+      </c>
+      <c r="D20">
+        <v>1118.2004711719201</v>
+      </c>
+      <c r="E20">
+        <v>2029.2065454508599</v>
+      </c>
+      <c r="F20">
+        <v>890.05836625953498</v>
+      </c>
+      <c r="G20">
+        <v>2029.9078748516399</v>
+      </c>
+      <c r="H20">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2029.8052852539299</v>
+      </c>
+      <c r="B21">
+        <v>1116.5838191154401</v>
+      </c>
+      <c r="C21">
+        <v>2031.9020046782</v>
+      </c>
+      <c r="D21">
+        <v>1149.28707951507</v>
+      </c>
+      <c r="E21">
+        <v>2030.30419425487</v>
+      </c>
+      <c r="F21">
+        <v>921.14659540161006</v>
+      </c>
+      <c r="G21">
+        <v>2030.95951325794</v>
+      </c>
+      <c r="H21">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2030.5458757403001</v>
+      </c>
+      <c r="B22">
+        <v>1151.16420782515</v>
+      </c>
+      <c r="C22">
+        <v>2032.6871155853401</v>
+      </c>
+      <c r="D22">
+        <v>1177.0151144517899</v>
+      </c>
+      <c r="E22">
+        <v>2031.4017860440499</v>
+      </c>
+      <c r="F22">
+        <v>954.63875997336595</v>
+      </c>
+      <c r="G22">
+        <v>2032.0111516642501</v>
+      </c>
+      <c r="H22">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2031.2772820963501</v>
+      </c>
+      <c r="B23">
+        <v>1187.04797277433</v>
+      </c>
+      <c r="C23">
+        <v>2033.4643031491701</v>
+      </c>
+      <c r="D23">
+        <v>1212.2614151535599</v>
+      </c>
+      <c r="E23">
+        <v>2032.4993084908699</v>
+      </c>
+      <c r="F23">
+        <v>991.05462979743697</v>
+      </c>
+      <c r="G23">
+        <v>2033.0627900705499</v>
+      </c>
+      <c r="H23">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2031.99953777679</v>
+      </c>
+      <c r="B24">
+        <v>1222.8245516433999</v>
+      </c>
+      <c r="C24">
+        <v>2034.2506036433799</v>
+      </c>
+      <c r="D24">
+        <v>1249.2063665226401</v>
+      </c>
+      <c r="E24">
+        <v>2033.5419122982</v>
+      </c>
+      <c r="F24">
+        <v>1027.4423705914901</v>
+      </c>
+      <c r="G24">
+        <v>2034.11442847685</v>
+      </c>
+      <c r="H24">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2032.56635372711</v>
+      </c>
+      <c r="B25">
+        <v>1251.6453616388701</v>
+      </c>
+      <c r="C25">
+        <v>2035.0368801229199</v>
+      </c>
+      <c r="D25">
+        <v>1287.1638565072401</v>
+      </c>
+      <c r="E25">
+        <v>2034.5204624017299</v>
+      </c>
+      <c r="F25">
+        <v>1063.0365723653499</v>
+      </c>
+      <c r="G25">
+        <v>2035.1660668831601</v>
+      </c>
+      <c r="H25">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2033.14230751893</v>
+      </c>
+      <c r="B26">
+        <v>1281.1144861908299</v>
+      </c>
+      <c r="C26">
+        <v>2035.7865603538</v>
+      </c>
+      <c r="D26">
+        <v>1324.4204896665301</v>
+      </c>
+      <c r="E26">
+        <v>2035.3983977590401</v>
+      </c>
+      <c r="F26">
+        <v>1095.6519655089701</v>
+      </c>
+      <c r="G26">
+        <v>2036.2177052894599</v>
+      </c>
+      <c r="H26">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2033.8370774590401</v>
+      </c>
+      <c r="B27">
+        <v>1317.9909808260199</v>
+      </c>
+      <c r="C27">
+        <v>2036.4722179897501</v>
+      </c>
+      <c r="D27">
+        <v>1359.57192971425</v>
+      </c>
+      <c r="E27">
+        <v>2036.2671575285799</v>
+      </c>
+      <c r="F27">
+        <v>1129.2105524812</v>
+      </c>
+      <c r="G27">
+        <v>2037.26934369576</v>
+      </c>
+      <c r="H27">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2034.45195595532</v>
+      </c>
+      <c r="B28">
+        <v>1351.5460756892101</v>
+      </c>
+      <c r="C28">
+        <v>2037.13956383645</v>
+      </c>
+      <c r="D28">
+        <v>1394.9491002468301</v>
+      </c>
+      <c r="E28">
+        <v>2037.11761010895</v>
+      </c>
+      <c r="F28">
+        <v>1162.80091492468</v>
+      </c>
+      <c r="G28">
+        <v>2038.32098210207</v>
+      </c>
+      <c r="H28">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2035.11684287657</v>
+      </c>
+      <c r="B29">
+        <v>1389.03916807059</v>
+      </c>
+      <c r="C29">
+        <v>2037.8343147242899</v>
+      </c>
+      <c r="D29">
+        <v>1432.62890201502</v>
+      </c>
+      <c r="E29">
+        <v>2037.9314589678099</v>
+      </c>
+      <c r="F29">
+        <v>1196.00550056308</v>
+      </c>
+      <c r="G29">
+        <v>2039.3726205083699</v>
+      </c>
+      <c r="H29">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2036.30511005433</v>
+      </c>
+      <c r="B30">
+        <v>1458.65641841044</v>
+      </c>
+      <c r="C30">
+        <v>2038.5107511851199</v>
+      </c>
+      <c r="D30">
+        <v>1470.6456506806201</v>
+      </c>
+      <c r="E30">
+        <v>2038.8092938228999</v>
+      </c>
+      <c r="F30">
+        <v>1232.85840256914</v>
+      </c>
+      <c r="G30">
+        <v>2040.42425891467</v>
+      </c>
+      <c r="H30">
+        <v>659.24614365530294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2036.8352198555599</v>
+      </c>
+      <c r="B31">
+        <v>1491.4101398867001</v>
+      </c>
+      <c r="C31">
+        <v>2039.15059275148</v>
+      </c>
+      <c r="D31">
+        <v>1507.9044452872599</v>
+      </c>
+      <c r="E31">
+        <v>2039.62308731592</v>
+      </c>
+      <c r="F31">
+        <v>1268.3973965001301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2037.2647733654201</v>
+      </c>
+      <c r="B32">
+        <v>1518.72040146731</v>
+      </c>
+      <c r="C32">
+        <v>2039.7172927443701</v>
+      </c>
+      <c r="D32">
+        <v>1541.6144066740401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2037.6943088882899</v>
+      </c>
+      <c r="B33">
+        <v>1546.7890544709401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2038.1969233070799</v>
+      </c>
+      <c r="B34">
+        <v>1581.0492350459101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2038.72691867039</v>
+      </c>
+      <c r="B35">
+        <v>1618.62804053799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2039.2203101719299</v>
+      </c>
+      <c r="B36">
+        <v>1655.82698341779</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2039.6770923337299</v>
+      </c>
+      <c r="B37">
+        <v>1692.8770328303799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8018BEA-49B9-1B42-9A7A-5348ADC7F270}">
   <dimension ref="A1:L28"/>
   <sheetViews>
@@ -5773,7 +6667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C5AF1E-8720-AD4D-AE69-58E15F872AB8}">
   <dimension ref="A1:T12"/>
   <sheetViews>
